--- a/assets/MetroPos-Assets/设计文档/Space Hound技能设计.xlsx
+++ b/assets/MetroPos-Assets/设计文档/Space Hound技能设计.xlsx
@@ -17,15 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="337">
-  <si>
-    <t>神圣魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣火术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="358">
   <si>
     <t>自身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +27,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10%的反噬效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身生命值20%的伤害+燃烧效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                     人物基础模型                                    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1361,6 +1345,106 @@
   </si>
   <si>
     <t>肋剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取焰于侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘风而起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可跳起两倍高度，跳起中受到伤害成倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一团燃烧的烈焰，朝前方飞去，撞到实体消失，消失前施放者承受燃烧伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出一个水弹，被击中者中毒，并回弹一个水弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光之影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若水之返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电向前方一定范围放出，击中一个目标，则自己受斥力后弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降雷然斥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗自身理智，射出一个暗刃，在一定时间内继续攻击伤害增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗自身生命，射出一个光球，造成带位移的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无之门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个连接门，传送到视野内的任何位置，需要较长时间架设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2001,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2036,54 +2120,54 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" t="s">
         <v>195</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>196</v>
       </c>
-      <c r="H2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" t="s">
-        <v>200</v>
-      </c>
       <c r="L2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2132,63 +2216,63 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>191</v>
-      </c>
       <c r="O4" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="24">
         <v>10001</v>
@@ -2221,30 +2305,30 @@
         <v>10</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="24">
         <v>10002</v>
@@ -2277,30 +2361,30 @@
         <v>10</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="R6" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B7" s="24">
         <v>10003</v>
@@ -2333,30 +2417,30 @@
         <v>15</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N7" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="R7" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B8" s="24">
         <v>10004</v>
@@ -2389,30 +2473,30 @@
         <v>1</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B9" s="24">
         <v>10005</v>
@@ -2445,30 +2529,30 @@
         <v>1</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M9" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q9" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="N9" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>288</v>
-      </c>
       <c r="R9" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="24">
         <v>10006</v>
@@ -2501,30 +2585,30 @@
         <v>10</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N10" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="O10" s="24" t="s">
-        <v>279</v>
-      </c>
       <c r="P10" s="24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" s="24">
         <v>10007</v>
@@ -2557,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -2572,7 +2656,7 @@
     </row>
     <row r="12" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B12" s="24">
         <v>10008</v>
@@ -2605,10 +2689,10 @@
         <v>15</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -2618,7 +2702,7 @@
     </row>
     <row r="13" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="24">
         <v>10009</v>
@@ -2651,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -2662,18 +2746,18 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
       <c r="T13" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="U13" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="24">
         <v>10010</v>
@@ -2706,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -2717,18 +2801,18 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="T14" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="24">
         <v>10011</v>
@@ -2761,10 +2845,10 @@
         <v>5</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -2772,18 +2856,18 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="T15" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="24">
         <v>10012</v>
@@ -2816,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -2827,18 +2911,18 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="T16" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U16" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="24">
         <v>10013</v>
@@ -2871,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -2882,18 +2966,18 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="T17" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="24">
         <v>10014</v>
@@ -2926,10 +3010,10 @@
         <v>-5</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -2937,18 +3021,18 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="T18" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U18" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B19" s="24">
         <v>10015</v>
@@ -2981,10 +3065,10 @@
         <v>-5</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -2994,7 +3078,7 @@
     </row>
     <row r="20" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="24">
         <v>10016</v>
@@ -3027,10 +3111,10 @@
         <v>-5</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -3040,7 +3124,7 @@
     </row>
     <row r="21" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" s="24">
         <v>10017</v>
@@ -3073,10 +3157,10 @@
         <v>-5</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -3088,27 +3172,27 @@
       <c r="T22" s="3"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="5"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T23" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3138,21 +3222,21 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X24" s="10"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B25">
         <v>10007</v>
@@ -3185,21 +3269,21 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V25" s="12"/>
       <c r="W25" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X25" s="10"/>
     </row>
     <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B26">
         <v>10010</v>
@@ -3232,23 +3316,23 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="U26" s="14"/>
       <c r="V26" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B27">
         <v>10011</v>
@@ -3281,19 +3365,19 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T27" s="17"/>
       <c r="U27" s="18"/>
       <c r="V27" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W27" s="18"/>
       <c r="X27" s="20"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3323,12 +3407,12 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>10001</v>
@@ -3361,12 +3445,12 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B30">
         <v>10002</v>
@@ -3399,12 +3483,12 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>10003</v>
@@ -3437,12 +3521,12 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B32">
         <v>10005</v>
@@ -3475,12 +3559,12 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>10006</v>
@@ -3513,35 +3597,35 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B44">
         <v>20000</v>
@@ -3549,7 +3633,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>20001</v>
@@ -3557,7 +3641,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>20002</v>
@@ -3565,7 +3649,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>20003</v>
@@ -3573,7 +3657,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>20004</v>
@@ -3581,30 +3665,30 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="I49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="J49" t="s">
         <v>49</v>
-      </c>
-      <c r="D49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B50">
         <v>30000</v>
@@ -3612,7 +3696,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>30001</v>
@@ -3630,7 +3714,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3640,412 +3724,412 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4057,10 +4141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4071,115 +4155,115 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T4" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T5" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" t="s">
-        <v>205</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>58</v>
-      </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C7">
         <v>50000</v>
@@ -4194,30 +4278,30 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>30</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -4226,38 +4310,38 @@
         <v>20</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O13">
         <f>+U73</f>
@@ -4266,169 +4350,236 @@
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T15" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B17">
         <v>51000</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T18" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="U18" s="14"/>
       <c r="V18" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T19" s="17"/>
       <c r="U19" s="18"/>
       <c r="V19" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W19" s="18"/>
       <c r="X19" s="20"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T24" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>326</v>
+      <c r="G29" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" t="s">
+        <v>337</v>
+      </c>
+      <c r="G30" t="s">
+        <v>342</v>
+      </c>
+      <c r="T30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" t="s">
+        <v>341</v>
+      </c>
+      <c r="T31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" t="s">
+        <v>343</v>
+      </c>
+      <c r="G32" t="s">
+        <v>344</v>
+      </c>
+      <c r="T32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" t="s">
+        <v>348</v>
+      </c>
+      <c r="G33" t="s">
+        <v>349</v>
+      </c>
+      <c r="T33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" t="s">
+        <v>353</v>
+      </c>
+      <c r="T34" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" t="s">
-        <v>330</v>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G35" t="s">
+        <v>354</v>
+      </c>
+      <c r="T35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" t="s">
+        <v>356</v>
+      </c>
+      <c r="G36" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +4594,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4453,157 +4604,157 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/assets/MetroPos-Assets/设计文档/Space Hound技能设计.xlsx
+++ b/assets/MetroPos-Assets/设计文档/Space Hound技能设计.xlsx
@@ -17,7 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="337">
+  <si>
+    <t>神圣魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣火术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>自身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +35,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10%的反噬效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自身生命值20%的伤害+燃烧效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">                     人物基础模型                                    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1345,106 +1361,6 @@
   </si>
   <si>
     <t>肋剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施放方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取焰于侧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘风而起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可跳起两倍高度，跳起中受到伤害成倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一团燃烧的烈焰，朝前方飞去，撞到实体消失，消失前施放者承受燃烧伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射出一个水弹，被击中者中毒，并回弹一个水弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗之光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光之影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若水之返</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电向前方一定范围放出，击中一个目标，则自己受斥力后弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降雷然斥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗自身理智，射出一个暗刃，在一定时间内继续攻击伤害增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗自身生命，射出一个光球，造成带位移的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无之门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个连接门，传送到视野内的任何位置，需要较长时间架设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2085,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2120,54 +2036,54 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2216,63 +2132,63 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4" s="22" t="s">
+      <c r="O4" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q4" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="R4" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" s="24">
         <v>10001</v>
@@ -2305,30 +2221,30 @@
         <v>10</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="24">
         <v>10002</v>
@@ -2361,30 +2277,30 @@
         <v>10</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B7" s="24">
         <v>10003</v>
@@ -2417,30 +2333,30 @@
         <v>15</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="R7" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B8" s="24">
         <v>10004</v>
@@ -2473,30 +2389,30 @@
         <v>1</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B9" s="24">
         <v>10005</v>
@@ -2529,30 +2445,30 @@
         <v>1</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" s="24">
         <v>10006</v>
@@ -2585,30 +2501,30 @@
         <v>10</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" s="24">
         <v>10007</v>
@@ -2641,13 +2557,13 @@
         <v>10</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -2656,7 +2572,7 @@
     </row>
     <row r="12" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B12" s="24">
         <v>10008</v>
@@ -2689,10 +2605,10 @@
         <v>15</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -2702,7 +2618,7 @@
     </row>
     <row r="13" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" s="24">
         <v>10009</v>
@@ -2735,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -2746,18 +2662,18 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
       <c r="T13" s="21" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="U13" s="22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B14" s="24">
         <v>10010</v>
@@ -2790,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
@@ -2801,18 +2717,18 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="T14" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="24">
         <v>10011</v>
@@ -2845,10 +2761,10 @@
         <v>5</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -2856,18 +2772,18 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="T15" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" s="24">
         <v>10012</v>
@@ -2900,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -2911,18 +2827,18 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="T16" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="U16" s="22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="24">
         <v>10013</v>
@@ -2955,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -2966,18 +2882,18 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="T17" s="22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18" s="24">
         <v>10014</v>
@@ -3010,10 +2926,10 @@
         <v>-5</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
@@ -3021,18 +2937,18 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="T18" s="22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="U18" s="22" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B19" s="24">
         <v>10015</v>
@@ -3065,10 +2981,10 @@
         <v>-5</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
@@ -3078,7 +2994,7 @@
     </row>
     <row r="20" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" s="24">
         <v>10016</v>
@@ -3111,10 +3027,10 @@
         <v>-5</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
@@ -3124,7 +3040,7 @@
     </row>
     <row r="21" spans="1:24" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" s="24">
         <v>10017</v>
@@ -3157,10 +3073,10 @@
         <v>-5</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
@@ -3172,27 +3088,27 @@
       <c r="T22" s="3"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="5"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T23" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3222,21 +3138,21 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="X24" s="10"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B25">
         <v>10007</v>
@@ -3269,21 +3185,21 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="V25" s="12"/>
       <c r="W25" s="13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="X25" s="10"/>
     </row>
     <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B26">
         <v>10010</v>
@@ -3316,23 +3232,23 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="U26" s="14"/>
       <c r="V26" s="15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B27">
         <v>10011</v>
@@ -3365,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="T27" s="17"/>
       <c r="U27" s="18"/>
       <c r="V27" s="19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="W27" s="18"/>
       <c r="X27" s="20"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3407,12 +3323,12 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>10001</v>
@@ -3445,12 +3361,12 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B30">
         <v>10002</v>
@@ -3483,12 +3399,12 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <v>10003</v>
@@ -3521,12 +3437,12 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B32">
         <v>10005</v>
@@ -3559,12 +3475,12 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>10006</v>
@@ -3597,35 +3513,35 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B44">
         <v>20000</v>
@@ -3633,7 +3549,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>20001</v>
@@ -3641,7 +3557,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B46">
         <v>20002</v>
@@ -3649,7 +3565,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>20003</v>
@@ -3657,7 +3573,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>20004</v>
@@ -3665,30 +3581,30 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B50">
         <v>30000</v>
@@ -3696,7 +3612,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>30001</v>
@@ -3714,7 +3630,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3724,412 +3640,412 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4141,10 +4057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4155,115 +4071,115 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T4" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T5" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C7">
         <v>50000</v>
@@ -4278,30 +4194,30 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N7">
         <v>30</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -4310,38 +4226,38 @@
         <v>20</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="O13">
         <f>+U73</f>
@@ -4350,236 +4266,169 @@
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T15" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B17">
         <v>51000</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T18" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="U18" s="14"/>
       <c r="V18" s="15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T19" s="17"/>
       <c r="U19" s="18"/>
       <c r="V19" s="19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="W19" s="18"/>
       <c r="X19" s="20"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T22" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T23" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T24" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T25" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>336</v>
+      <c r="L29" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
-      </c>
-      <c r="G30" t="s">
-        <v>342</v>
-      </c>
-      <c r="T30" t="s">
-        <v>322</v>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B31" t="s">
-        <v>340</v>
-      </c>
-      <c r="G31" t="s">
-        <v>341</v>
-      </c>
-      <c r="T31" t="s">
-        <v>323</v>
+      <c r="L31" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>347</v>
-      </c>
-      <c r="B32" t="s">
-        <v>343</v>
-      </c>
-      <c r="G32" t="s">
-        <v>344</v>
-      </c>
-      <c r="T32" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B33" t="s">
-        <v>348</v>
-      </c>
-      <c r="G33" t="s">
-        <v>349</v>
-      </c>
-      <c r="T33" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B34" t="s">
-        <v>351</v>
-      </c>
-      <c r="G34" t="s">
-        <v>353</v>
-      </c>
-      <c r="T34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>346</v>
-      </c>
-      <c r="B35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G35" t="s">
-        <v>354</v>
-      </c>
-      <c r="T35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>355</v>
-      </c>
-      <c r="B36" t="s">
-        <v>356</v>
-      </c>
-      <c r="G36" t="s">
-        <v>357</v>
+      <c r="L32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4443,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4604,157 +4453,157 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
